--- a/LubanTools/DesignerConfigs/Datas/M_移车让行/CarMoveLevelData.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/M_移车让行/CarMoveLevelData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="21528" windowHeight="9396"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="21528" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -55,24 +55,30 @@
   </si>
   <si>
     <t>所属场景</t>
-  </si>
-  <si>
-    <t>DefaultPos</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VictoryPos</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),vector3</t>
   </si>
   <si>
     <t>初始位置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>胜利位置</t>
+    <r>
+      <t>(list#sep=|),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarEntityId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -461,10 +467,9 @@
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="4" width="8.44140625" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,16 +483,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -498,17 +500,14 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -522,86 +521,65 @@
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/LubanTools/DesignerConfigs/Datas/M_移车让行/CarMoveLevelData.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/M_移车让行/CarMoveLevelData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="21528" windowHeight="9396"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="21528" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>初始位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarEntityId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -75,10 +79,6 @@
       </rPr>
       <t>int</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarEntityId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +458,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>

--- a/LubanTools/DesignerConfigs/Datas/M_移车让行/CarMoveLevelData.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/M_移车让行/CarMoveLevelData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubUnityProject\Deer_GameFramework_Wolong.git\trunk\LubanTools\DesignerConfigs\Datas\M_移车让行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubFramework\Deer_GameFramework_Wolong.git\trunk\LubanTools\DesignerConfigs\Datas\M_移车让行\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="21528" windowHeight="9396"/>
+    <workbookView xWindow="5355" yWindow="0" windowWidth="21525" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -33,9 +33,6 @@
     <t>entityId</t>
   </si>
   <si>
-    <t>levelId</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -52,13 +49,6 @@
   </si>
   <si>
     <t>实例ID</t>
-  </si>
-  <si>
-    <t>所属场景</t>
-  </si>
-  <si>
-    <t>初始位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CarEntityId</t>
@@ -79,6 +69,14 @@
       </rPr>
       <t>int</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001|1002|1003|1004|1005|1006|1009|1010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的EntityId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,6 +153,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -162,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -179,6 +188,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - 着色 2" xfId="1" builtinId="36"/>
@@ -455,21 +465,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+    <col min="3" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,59 +493,53 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -543,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -551,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -559,7 +563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -567,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -575,13 +579,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
